--- a/data/_input/static/test.xlsx
+++ b/data/_input/static/test.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,31 +436,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -473,37 +473,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -516,37 +516,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -559,37 +559,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -645,37 +645,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -688,37 +688,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -731,37 +731,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -779,37 +779,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -827,37 +827,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -875,37 +875,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -923,37 +923,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -971,37 +971,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1019,37 +1019,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1067,37 +1067,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1115,37 +1115,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1163,35 +1163,89 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>182437789</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,31 +1339,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1322,37 +1376,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1365,37 +1419,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1408,37 +1462,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1451,37 +1505,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1494,37 +1548,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1537,37 +1591,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1580,37 +1634,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1628,37 +1682,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1676,37 +1730,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1724,37 +1778,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1772,37 +1826,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1820,37 +1874,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1868,37 +1922,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1916,37 +1970,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1964,37 +2018,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2012,35 +2066,89 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 49872291</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2134,31 +2242,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -2171,37 +2279,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -2214,37 +2322,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -2257,37 +2365,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -2300,37 +2408,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -2343,37 +2451,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2386,37 +2494,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -2429,37 +2537,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2477,37 +2585,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2525,37 +2633,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2573,37 +2681,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2621,37 +2729,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2669,37 +2777,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2717,37 +2825,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2765,37 +2873,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2813,37 +2921,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2861,263 +2969,93 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37086670</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
-    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1587F282-BA47-4BD1-BAA9-70D1975A6482}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687831AA-6D0B-4F09-8522-5A2A21A8826A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FD547D-FC95-4328-9B5E-349552968374}"/>
 </file>
--- a/data/_input/static/test.xlsx
+++ b/data/_input/static/test.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,31 +436,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -473,37 +473,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -516,37 +516,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -559,37 +559,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -645,37 +645,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -688,37 +688,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -731,37 +731,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -779,37 +779,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -827,37 +827,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -875,37 +875,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -923,37 +923,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -971,37 +971,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1019,37 +1019,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1067,37 +1067,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1115,37 +1115,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1163,35 +1163,89 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>182437789</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,31 +1339,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1322,37 +1376,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1365,37 +1419,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1408,37 +1462,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1451,37 +1505,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1494,37 +1548,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1537,37 +1591,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1580,37 +1634,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1628,37 +1682,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1676,37 +1730,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1724,37 +1778,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1772,37 +1826,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1820,37 +1874,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1868,37 +1922,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1916,37 +1970,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1964,37 +2018,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2012,35 +2066,89 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 49872291</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2134,31 +2242,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7564052</v>
+        <v>7560951.653214871</v>
       </c>
       <c r="C2">
-        <v>343098</v>
+        <v>343099.8577492498</v>
       </c>
       <c r="D2">
-        <v>5593721</v>
+        <v>5593725.158420495</v>
       </c>
       <c r="E2">
-        <v>32242512</v>
+        <v>32242519.6354733</v>
       </c>
       <c r="F2">
-        <v>37799</v>
+        <v>37800.55624615515</v>
       </c>
       <c r="G2">
-        <v>7245474</v>
+        <v>7245474.795707916</v>
       </c>
       <c r="H2">
-        <v>1034911</v>
+        <v>942154427.8951255</v>
       </c>
       <c r="I2">
-        <v>43864965</v>
+        <v>43864983.19713932</v>
       </c>
       <c r="J2">
-        <v>2945230</v>
+        <v>2942129.569881537</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -2171,37 +2279,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20547172</v>
+        <v>21950464.5608333</v>
       </c>
       <c r="C3">
-        <v>3351470</v>
+        <v>3351472.012980853</v>
       </c>
       <c r="D3">
-        <v>6343895</v>
+        <v>6343895.276608084</v>
       </c>
       <c r="E3">
-        <v>58752537</v>
+        <v>58752545.64811752</v>
       </c>
       <c r="F3">
-        <v>363162</v>
+        <v>363164.1862788198</v>
       </c>
       <c r="G3">
-        <v>17027762</v>
+        <v>17027765.10361181</v>
       </c>
       <c r="H3">
-        <v>164066</v>
+        <v>149302284.1980456</v>
       </c>
       <c r="I3">
-        <v>41621867</v>
+        <v>41621868.48277476</v>
       </c>
       <c r="J3">
-        <v>10553151</v>
+        <v>11956443.42194441</v>
       </c>
       <c r="K3">
-        <v>43282</v>
+        <v>43283.03418803419</v>
       </c>
       <c r="L3">
-        <v>14376</v>
+        <v>14376.92307692308</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -2214,37 +2322,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80099918</v>
+        <v>101142999.991928</v>
       </c>
       <c r="C4">
-        <v>8260492</v>
+        <v>8260502.349663573</v>
       </c>
       <c r="D4">
-        <v>14248603</v>
+        <v>14248609.30838147</v>
       </c>
       <c r="E4">
-        <v>113679866</v>
+        <v>114905980.3514232</v>
       </c>
       <c r="F4">
-        <v>3432930</v>
+        <v>3432937.205847924</v>
       </c>
       <c r="G4">
-        <v>69066625</v>
+        <v>69066624.86159079</v>
       </c>
       <c r="H4">
-        <v>118616017</v>
+        <v>217291765.6972451</v>
       </c>
       <c r="I4">
-        <v>71359300</v>
+        <v>71359295.23499112</v>
       </c>
       <c r="J4">
-        <v>24490115</v>
+        <v>45533196.90645795</v>
       </c>
       <c r="K4">
-        <v>2485784</v>
+        <v>2493767.963249457</v>
       </c>
       <c r="L4">
-        <v>1855744</v>
+        <v>1855746.415658737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -2257,37 +2365,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120381156</v>
+        <v>142300947.7579911</v>
       </c>
       <c r="C5">
-        <v>8114505</v>
+        <v>8114503.384145375</v>
       </c>
       <c r="D5">
-        <v>14945279</v>
+        <v>14945275.85961429</v>
       </c>
       <c r="E5">
-        <v>148561486</v>
+        <v>149186011.6983194</v>
       </c>
       <c r="F5">
-        <v>5255275</v>
+        <v>5255275.312218628</v>
       </c>
       <c r="G5">
-        <v>104557856</v>
+        <v>104557855.4237834</v>
       </c>
       <c r="H5">
-        <v>170723504</v>
+        <v>214779693.3163531</v>
       </c>
       <c r="I5">
-        <v>104231753</v>
+        <v>104231757.15542</v>
       </c>
       <c r="J5">
-        <v>31114851</v>
+        <v>53034642.3513977</v>
       </c>
       <c r="K5">
-        <v>3655201</v>
+        <v>3707552.733462024</v>
       </c>
       <c r="L5">
-        <v>2793730</v>
+        <v>2793728.641109302</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -2300,37 +2408,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98092338</v>
+        <v>116611453.718546</v>
       </c>
       <c r="C6">
-        <v>13435736</v>
+        <v>13435726.73455378</v>
       </c>
       <c r="D6">
-        <v>26199236</v>
+        <v>26199235.62593448</v>
       </c>
       <c r="E6">
-        <v>127683392</v>
+        <v>128535159.8911565</v>
       </c>
       <c r="F6">
-        <v>6031508</v>
+        <v>6031498.847732071</v>
       </c>
       <c r="G6">
-        <v>67913525</v>
+        <v>67913523.5864414</v>
       </c>
       <c r="H6">
-        <v>11876275</v>
+        <v>221993683.1951455</v>
       </c>
       <c r="I6">
-        <v>148501090</v>
+        <v>148501094.8974233</v>
       </c>
       <c r="J6">
-        <v>41774641</v>
+        <v>60293757.28997454</v>
       </c>
       <c r="K6">
-        <v>3903333</v>
+        <v>3930544.511350718</v>
       </c>
       <c r="L6">
-        <v>2203562</v>
+        <v>2203560.686821705</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -2343,37 +2451,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182781575</v>
+        <v>196837118.1625458</v>
       </c>
       <c r="C7">
-        <v>17352151</v>
+        <v>17352164.0834263</v>
       </c>
       <c r="D7">
-        <v>31349206</v>
+        <v>31349206.14077491</v>
       </c>
       <c r="E7">
-        <v>131615720</v>
+        <v>132432905.8163265</v>
       </c>
       <c r="F7">
-        <v>9305097</v>
+        <v>9305108.90734507</v>
       </c>
       <c r="G7">
-        <v>146654915</v>
+        <v>146654916.3425011</v>
       </c>
       <c r="H7">
-        <v>-182932470</v>
+        <v>214866422.9565522</v>
       </c>
       <c r="I7">
-        <v>175411111</v>
+        <v>175411108.482533</v>
       </c>
       <c r="J7">
-        <v>61502625</v>
+        <v>75558168.30540295</v>
       </c>
       <c r="K7">
-        <v>5001446</v>
+        <v>5031067.540544991</v>
       </c>
       <c r="L7">
-        <v>3133788</v>
+        <v>3133790.295739348</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2386,37 +2494,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>227500585</v>
+        <v>236594687.0764459</v>
       </c>
       <c r="C8">
-        <v>19403090</v>
+        <v>19403092.28906817</v>
       </c>
       <c r="D8">
-        <v>43667377</v>
+        <v>43667380.32849887</v>
       </c>
       <c r="E8">
-        <v>145737320</v>
+        <v>146186930.0591837</v>
       </c>
       <c r="F8">
-        <v>11585092</v>
+        <v>11585092.8117195</v>
       </c>
       <c r="G8">
-        <v>176012093</v>
+        <v>176012094.9361472</v>
       </c>
       <c r="H8">
-        <v>82792439</v>
+        <v>222030255.4837565</v>
       </c>
       <c r="I8">
-        <v>165381333</v>
+        <v>165381332.3854022</v>
       </c>
       <c r="J8">
-        <v>98252642</v>
+        <v>107346744.0764459</v>
       </c>
       <c r="K8">
-        <v>4143307</v>
+        <v>4138602.85410889</v>
       </c>
       <c r="L8">
-        <v>1930823</v>
+        <v>1930823.136619959</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -2429,37 +2537,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>354186963</v>
+        <v>349242139.0453836</v>
       </c>
       <c r="C9">
-        <v>36397483</v>
+        <v>36397481.35289962</v>
       </c>
       <c r="D9">
-        <v>76852406</v>
+        <v>76852399.89311145</v>
       </c>
       <c r="E9">
-        <v>157929759</v>
+        <v>158191859.6142857</v>
       </c>
       <c r="F9">
-        <v>19456614</v>
+        <v>19456615.23297608</v>
       </c>
       <c r="G9">
-        <v>258863007</v>
+        <v>258863004.1883117</v>
       </c>
       <c r="H9">
-        <v>1771946512</v>
+        <v>226027166.7057095</v>
       </c>
       <c r="I9">
-        <v>123994790</v>
+        <v>123994796.2878391</v>
       </c>
       <c r="J9">
-        <v>169305737</v>
+        <v>164360913.0453836</v>
       </c>
       <c r="K9">
-        <v>6242251</v>
+        <v>6234005.977158703</v>
       </c>
       <c r="L9">
-        <v>3002310</v>
+        <v>3002307.766520244</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2477,37 +2585,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>436597598</v>
+        <v>424368422.7714863</v>
       </c>
       <c r="C10">
-        <v>44746576</v>
+        <v>44746570.48123868</v>
       </c>
       <c r="D10">
-        <v>90688534</v>
+        <v>89427523.58924742</v>
       </c>
       <c r="E10">
-        <v>136453388</v>
+        <v>136892437.2857142</v>
       </c>
       <c r="F10">
-        <v>25389464</v>
+        <v>25389457.85569102</v>
       </c>
       <c r="G10">
-        <v>333011044</v>
+        <v>333011046.4761905</v>
       </c>
       <c r="H10">
-        <v>608424042</v>
+        <v>215957821.4028332</v>
       </c>
       <c r="I10">
-        <v>88536803</v>
+        <v>88536799.8314919</v>
       </c>
       <c r="J10">
-        <v>204315961</v>
+        <v>192086785.2000577</v>
       </c>
       <c r="K10">
-        <v>10796936</v>
+        <v>10755088.72423034</v>
       </c>
       <c r="L10">
-        <v>6751562</v>
+        <v>6751562.414772562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2525,37 +2633,37 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>403116012</v>
+        <v>374219679.386602</v>
       </c>
       <c r="C11">
-        <v>48064698</v>
+        <v>48064697.97915698</v>
       </c>
       <c r="D11">
-        <v>89030549</v>
+        <v>91084495.2715721</v>
       </c>
       <c r="E11">
-        <v>139535595</v>
+        <v>139878755.6666667</v>
       </c>
       <c r="F11">
-        <v>27479404</v>
+        <v>27479403.36963738</v>
       </c>
       <c r="G11">
-        <v>282528760</v>
+        <v>282528758.6285715</v>
       </c>
       <c r="H11">
-        <v>116728854</v>
+        <v>224378742.2954983</v>
       </c>
       <c r="I11">
-        <v>70285863</v>
+        <v>70285841.38273622</v>
       </c>
       <c r="J11">
-        <v>227679190</v>
+        <v>198782857.8151734</v>
       </c>
       <c r="K11">
-        <v>13807517</v>
+        <v>13697157.14864484</v>
       </c>
       <c r="L11">
-        <v>8205044</v>
+        <v>8205045.589029878</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2573,37 +2681,37 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>425286312</v>
+        <v>388859208.9631887</v>
       </c>
       <c r="C12">
-        <v>50368837</v>
+        <v>50368840.33652528</v>
       </c>
       <c r="D12">
-        <v>60761839</v>
+        <v>59968903.42434823</v>
       </c>
       <c r="E12">
-        <v>145253812</v>
+        <v>145658369.7272727</v>
       </c>
       <c r="F12">
-        <v>33119583</v>
+        <v>33119586.14714378</v>
       </c>
       <c r="G12">
-        <v>280420293</v>
+        <v>280420291.7285714</v>
       </c>
       <c r="H12">
-        <v>96682456</v>
+        <v>319336625.0411884</v>
       </c>
       <c r="I12">
-        <v>121197642</v>
+        <v>121197667.3763103</v>
       </c>
       <c r="J12">
-        <v>244061819</v>
+        <v>207634716.1060459</v>
       </c>
       <c r="K12">
-        <v>17609018</v>
+        <v>17580195.44403471</v>
       </c>
       <c r="L12">
-        <v>10455907</v>
+        <v>10455907.10867332</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2621,37 +2729,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>452803936</v>
+        <v>449234075.424482</v>
       </c>
       <c r="C13">
-        <v>61395731</v>
+        <v>61393004.59270604</v>
       </c>
       <c r="D13">
-        <v>73487170</v>
+        <v>73484446.94739959</v>
       </c>
       <c r="E13">
-        <v>120882456</v>
+        <v>121380039.8727273</v>
       </c>
       <c r="F13">
-        <v>43210099</v>
+        <v>43210099.22396899</v>
       </c>
       <c r="G13">
-        <v>299151427</v>
+        <v>299151430.3869049</v>
       </c>
       <c r="H13">
-        <v>82558632</v>
+        <v>399960030.735788</v>
       </c>
       <c r="I13">
-        <v>160023618</v>
+        <v>160023613.0308281</v>
       </c>
       <c r="J13">
-        <v>242685971</v>
+        <v>239116110.1387676</v>
       </c>
       <c r="K13">
-        <v>27336648</v>
+        <v>27350923.53197134</v>
       </c>
       <c r="L13">
-        <v>15486054</v>
+        <v>15486053.45347985</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2669,37 +2777,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>444453903</v>
+        <v>444471475.6319754</v>
       </c>
       <c r="C14">
-        <v>47934220</v>
+        <v>47927178.41303039</v>
       </c>
       <c r="D14">
-        <v>61906462</v>
+        <v>61927840.87920512</v>
       </c>
       <c r="E14">
-        <v>137854237</v>
+        <v>131938582.447619</v>
       </c>
       <c r="F14">
-        <v>34509401</v>
+        <v>34509407.47276124</v>
       </c>
       <c r="G14">
-        <v>331023962</v>
+        <v>331023959.7202381</v>
       </c>
       <c r="H14">
-        <v>85580952</v>
+        <v>259912643.609803</v>
       </c>
       <c r="I14">
-        <v>135730032</v>
+        <v>135730034.4952169</v>
       </c>
       <c r="J14">
-        <v>227853915</v>
+        <v>227871487.6319754</v>
       </c>
       <c r="K14">
-        <v>21170076</v>
+        <v>21198213.21546194</v>
       </c>
       <c r="L14">
-        <v>14354634</v>
+        <v>14354635.44601907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2717,37 +2825,37 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>326624319</v>
+        <v>326195053.9721631</v>
       </c>
       <c r="C15">
-        <v>57768622</v>
+        <v>57348027.97200851</v>
       </c>
       <c r="D15">
-        <v>63994184</v>
+        <v>63965695.30179692</v>
       </c>
       <c r="E15">
-        <v>93725580</v>
+        <v>93725579.73809533</v>
       </c>
       <c r="F15">
-        <v>48595660</v>
+        <v>48181431.86295871</v>
       </c>
       <c r="G15">
-        <v>206458413</v>
+        <v>206458412.4780219</v>
       </c>
       <c r="H15">
-        <v>61981712</v>
+        <v>194322599.9595331</v>
       </c>
       <c r="I15">
-        <v>60861470</v>
+        <v>50945092.36087043</v>
       </c>
       <c r="J15">
-        <v>216781442</v>
+        <v>216352177.2578774</v>
       </c>
       <c r="K15">
-        <v>40494521</v>
+        <v>40099451.35706831</v>
       </c>
       <c r="L15">
-        <v>28565873</v>
+        <v>28565873.37386844</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2765,37 +2873,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>236336177</v>
+        <v>236482674.571741</v>
       </c>
       <c r="C16">
-        <v>40188263</v>
+        <v>40138436.92480061</v>
       </c>
       <c r="D16">
-        <v>44603968</v>
+        <v>44613803.79080088</v>
       </c>
       <c r="E16">
-        <v>62930851</v>
+        <v>62930851.23809525</v>
       </c>
       <c r="F16">
-        <v>30682876</v>
+        <v>30616909.43809471</v>
       </c>
       <c r="G16">
-        <v>151550914</v>
+        <v>151550914.0576923</v>
       </c>
       <c r="H16">
-        <v>-1543347225</v>
+        <v>188712890.3148545</v>
       </c>
       <c r="I16">
-        <v>26821703</v>
+        <v>26156608.39296288</v>
       </c>
       <c r="J16">
-        <v>171632526</v>
+        <v>171779023.571741</v>
       </c>
       <c r="K16">
-        <v>22581865</v>
+        <v>22646095.32234862</v>
       </c>
       <c r="L16">
-        <v>14805017</v>
+        <v>14805013.97797399</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2813,37 +2921,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>151081341</v>
+        <v>154267452.1098744</v>
       </c>
       <c r="C17">
-        <v>28414007</v>
+        <v>28553816.08316669</v>
       </c>
       <c r="D17">
-        <v>22382887</v>
+        <v>22302673.90284732</v>
       </c>
       <c r="E17">
-        <v>49534525</v>
+        <v>52427754.73809522</v>
       </c>
       <c r="F17">
-        <v>24115243</v>
+        <v>24361679.09582596</v>
       </c>
       <c r="G17">
-        <v>95282751</v>
+        <v>95283177.64642848</v>
       </c>
       <c r="H17">
-        <v>1632843126</v>
+        <v>120969103.4915125</v>
       </c>
       <c r="I17">
-        <v>18870260</v>
+        <v>26022192.44877345</v>
       </c>
       <c r="J17">
-        <v>103388387</v>
+        <v>106574497.3955888</v>
       </c>
       <c r="K17">
-        <v>15575096</v>
+        <v>16065394.16205546</v>
       </c>
       <c r="L17">
-        <v>7484927</v>
+        <v>7780618.383644793</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2861,35 +2969,89 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14880283</v>
+        <v>137659500.1218686</v>
       </c>
       <c r="C18">
-        <v>6274058</v>
+        <v>28532357.33127336</v>
       </c>
       <c r="D18">
-        <v>899401</v>
+        <v>12455064.50710497</v>
+      </c>
+      <c r="E18">
+        <v>61382881.33333339</v>
       </c>
       <c r="F18">
-        <v>6087822</v>
+        <v>23512268.86959019</v>
       </c>
       <c r="G18">
-        <v>8680411</v>
+        <v>92018785.98452389</v>
       </c>
       <c r="H18">
-        <v>562571</v>
+        <v>61616571.94089961</v>
+      </c>
+      <c r="I18">
+        <v>22423998.5358586</v>
       </c>
       <c r="J18">
-        <v>9318491</v>
+        <v>74625706.83615422</v>
       </c>
       <c r="K18">
-        <v>4364981</v>
+        <v>17112400.54693145</v>
       </c>
       <c r="L18">
-        <v>2911949</v>
+        <v>13056206.29969029</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2022-05</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37086670</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>123943456.07973</v>
+      </c>
+      <c r="C19">
+        <v>44701584.82160655</v>
+      </c>
+      <c r="D19">
+        <v>40194171.79433341</v>
+      </c>
+      <c r="E19">
+        <v>33284159.23809515</v>
+      </c>
+      <c r="F19">
+        <v>37973480.60396379</v>
+      </c>
+      <c r="G19">
+        <v>33916527.65476192</v>
+      </c>
+      <c r="H19">
+        <v>40791773.56015652</v>
+      </c>
+      <c r="I19">
+        <v>12826621.02142855</v>
+      </c>
+      <c r="J19">
+        <v>111673060.07973</v>
+      </c>
+      <c r="K19">
+        <v>34321880.93319018</v>
+      </c>
+      <c r="L19">
+        <v>30814584.08730159</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06</t>
         </is>
       </c>
     </row>
@@ -3104,20 +3266,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1587F282-BA47-4BD1-BAA9-70D1975A6482}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{583DC6DD-9DB1-4D6D-A8DC-F8727943C6C8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687831AA-6D0B-4F09-8522-5A2A21A8826A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FD547D-FC95-4328-9B5E-349552968374}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558F54ED-E57E-4BCF-8882-2AFE9CE42427}"/>
 </file>
--- a/data/_input/static/test.xlsx
+++ b/data/_input/static/test.xlsx
@@ -3058,4 +3058,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{583DC6DD-9DB1-4D6D-A8DC-F8727943C6C8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558F54ED-E57E-4BCF-8882-2AFE9CE42427}"/>
 </file>